--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/20/seed5/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.4618</v>
+        <v>-11.9871</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -482,10 +482,10 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.660200000000002</v>
+        <v>7.023700000000003</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.93059999999999</v>
+        <v>-11.87529999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.910599999999999</v>
+        <v>8.960299999999997</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>15.89509999999999</v>
+        <v>15.9386</v>
       </c>
     </row>
     <row r="9">
@@ -587,7 +587,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.5198</v>
+        <v>-10.51509999999999</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.94710000000001</v>
+        <v>-21.7882</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -627,12 +627,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.64209999999999</v>
+        <v>16.57429999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5804</v>
+        <v>-21.5851</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.607299999999998</v>
+        <v>6.865899999999998</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -678,24 +678,24 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.1265</v>
+        <v>17.19129999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.29729999999999</v>
+        <v>-21.42509999999999</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-12.76709999999999</v>
+        <v>-12.4879</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.12499999999999</v>
+        <v>16.23389999999999</v>
       </c>
     </row>
     <row r="16">
@@ -729,7 +729,7 @@
         <v>-7.82</v>
       </c>
       <c r="E17" t="n">
-        <v>16.26600000000001</v>
+        <v>16.39410000000002</v>
       </c>
     </row>
     <row r="18">
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.43350000000001</v>
+        <v>-12.45840000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.3126</v>
+        <v>-11.52750000000001</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.6695</v>
+        <v>-13.2958</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.320799999999999</v>
+        <v>5.473899999999998</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -882,18 +882,18 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.23070000000001</v>
+        <v>16.33730000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.44009999999998</v>
+        <v>-21.37839999999998</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.8543</v>
+        <v>-13.1019</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -904,13 +904,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.68379999999999</v>
+        <v>-21.7851</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.16049999999999</v>
+        <v>-13.2847</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-11.86489999999999</v>
+        <v>-11.90879999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.5444</v>
+        <v>-21.6131</v>
       </c>
       <c r="B31" t="n">
-        <v>5.431699999999999</v>
+        <v>5.186700000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.74969999999999</v>
+        <v>-21.51139999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.0061</v>
+        <v>-13.2651</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.710800000000001</v>
+        <v>8.696200000000006</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.81750000000001</v>
+        <v>-20.1843</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.53940000000001</v>
+        <v>16.50460000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.6282</v>
+        <v>8.794700000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.86910000000001</v>
+        <v>-19.6737</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.47300000000001</v>
+        <v>9.526800000000007</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.333</v>
+        <v>8.337999999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.5406</v>
+        <v>16.6681</v>
       </c>
     </row>
     <row r="43">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.23469999999999</v>
+        <v>-13.12669999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.988</v>
+        <v>6.565999999999998</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.6724</v>
+        <v>-21.535</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.0103</v>
+        <v>-11.953</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.228800000000002</v>
+        <v>5.231600000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.63149999999998</v>
+        <v>-21.60059999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.40790000000001</v>
+        <v>-22.5957</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.0538</v>
+        <v>-22.0268</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.678799999999995</v>
+        <v>4.442699999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.3381</v>
+        <v>-12.8135</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.3913</v>
+        <v>-14.71410000000001</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.3726</v>
+        <v>17.4169</v>
       </c>
     </row>
     <row r="65">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.50849999999998</v>
+        <v>-21.48529999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1596,12 +1596,12 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>16.86760000000001</v>
+        <v>16.7786</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.72329999999998</v>
+        <v>-21.72289999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.92590000000002</v>
+        <v>-22.17860000000003</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.16529999999999</v>
+        <v>-20.02489999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-11.7173</v>
+        <v>-11.7679</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.7572</v>
+        <v>-11.6034</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.29730000000002</v>
+        <v>18.16500000000002</v>
       </c>
     </row>
     <row r="80">
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.304100000000001</v>
+        <v>6.833799999999999</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.54269999999999</v>
+        <v>-21.49239999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>5.386600000000005</v>
+        <v>5.161300000000006</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.19909999999999</v>
+        <v>-13.66629999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.07580000000001</v>
+        <v>-22.082</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1947,13 +1947,13 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.2924</v>
+        <v>-10.2972</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.25530000000001</v>
+        <v>17.37450000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1975,13 +1975,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.6566</v>
+        <v>-21.50049999999999</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.845</v>
+        <v>-10.95989999999999</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.06929999999999</v>
+        <v>-11.4414</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.18049999999999</v>
+        <v>-21.25069999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.3725</v>
+        <v>-12.5879</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.1528</v>
+        <v>-20.23069999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>4.8872</v>
+        <v>5.203399999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.156399999999996</v>
+        <v>8.412300000000002</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.479</v>
+        <v>-13.44320000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
